--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21418"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nwmissouri-my.sharepoint.com/personal/s531378_nwmissouri_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533487\Documents\44663\Team07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C420A659-0249-40EE-ACB7-97C191BF00CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="6" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Student" sheetId="6" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="88">
-  <si>
-    <t>RequirementID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
   <si>
     <t>RequirementAbbrev</t>
   </si>
@@ -120,9 +116,6 @@
     <t>GDP2</t>
   </si>
   <si>
-    <t>DegreeId</t>
-  </si>
-  <si>
     <t>DegreeAbrrev(unique,max 6 characters)</t>
   </si>
   <si>
@@ -153,36 +146,12 @@
     <t>MS ACS</t>
   </si>
   <si>
-    <t>DegreeRequirementId</t>
-  </si>
-  <si>
-    <t>RequirementId</t>
-  </si>
-  <si>
-    <t>DegreePlanTermRequirementId</t>
-  </si>
-  <si>
-    <t>DegreePlanID</t>
-  </si>
-  <si>
-    <t>TermId</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                    off</t>
   </si>
   <si>
     <t>Summer OFF</t>
   </si>
   <si>
-    <t>DegreePlanId</t>
-  </si>
-  <si>
-    <t>DegreeID</t>
-  </si>
-  <si>
-    <t>StudentId</t>
-  </si>
-  <si>
     <t>DegreePlanAbbrev(u,8)</t>
   </si>
   <si>
@@ -255,12 +224,6 @@
     <t>Avirineni</t>
   </si>
   <si>
-    <t>StudentTermId</t>
-  </si>
-  <si>
-    <t>StudentID</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -301,13 +264,55 @@
   </si>
   <si>
     <t>Summer 2020</t>
+  </si>
+  <si>
+    <t>pk: RequirementID</t>
+  </si>
+  <si>
+    <t>pk: DegreeId</t>
+  </si>
+  <si>
+    <t>pk: DegreeRequirementId</t>
+  </si>
+  <si>
+    <t>pk: DegreePlanTermRequirementId</t>
+  </si>
+  <si>
+    <t>pk: DegreePlanId</t>
+  </si>
+  <si>
+    <t>pk: StudentId</t>
+  </si>
+  <si>
+    <t>pk: StudentTermId</t>
+  </si>
+  <si>
+    <t>fk: DegreeId</t>
+  </si>
+  <si>
+    <t>fk: RequirementId</t>
+  </si>
+  <si>
+    <t>fk: StudentId</t>
+  </si>
+  <si>
+    <t>fk: DegreeID</t>
+  </si>
+  <si>
+    <t>fk: StudentID</t>
+  </si>
+  <si>
+    <t>fk: DegreePlanID</t>
+  </si>
+  <si>
+    <t>fk: TermId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,172 +635,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>460</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>356</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>542</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>563</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>560</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>555</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>618</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>664</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>20</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>691</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>692</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -804,73 +809,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -879,32 +884,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -915,7 +920,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -926,7 +931,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -937,7 +942,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -948,7 +953,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -959,7 +964,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -970,7 +975,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -981,7 +986,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -992,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1014,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1025,7 +1030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1080,7 +1085,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1113,7 +1118,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1124,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1157,7 +1162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1201,7 +1206,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1267,7 +1272,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1278,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1289,7 +1294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1311,7 +1316,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1439,35 +1444,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1523,7 +1529,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1607,7 +1613,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1663,7 +1669,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1870,10 +1876,10 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1971,7 +1977,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1999,7 +2005,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2097,7 +2103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2262,10 +2268,10 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2355,14 +2361,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="3" width="24.42578125" customWidth="1"/>
@@ -2370,24 +2376,24 @@
     <col min="5" max="5" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2395,16 +2401,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2412,16 +2418,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -2429,16 +2435,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -2446,16 +2452,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2463,13 +2469,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2478,117 +2484,117 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E1">
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>919562176</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>919565950</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>919563259</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>919570258</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>919568647</v>
@@ -2600,368 +2606,368 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -1449,7 +1449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3598,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>RequirementAbbrev</t>
   </si>
@@ -303,6 +303,15 @@
   </si>
   <si>
     <t>UXD</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>ending</t>
+  </si>
+  <si>
+    <t>str</t>
   </si>
 </sst>
 </file>
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +654,13 @@
     <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>74</v>
       </c>
@@ -658,8 +670,17 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -670,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -681,7 +702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -692,7 +713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3598,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>RequirementAbbrev</t>
   </si>
@@ -303,12 +303,6 @@
   </si>
   <si>
     <t>UXD</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>ending</t>
   </si>
   <si>
     <t>str</t>
@@ -646,7 +640,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,14 +664,8 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>Term</t>
   </si>
   <si>
-    <t>Term Label</t>
-  </si>
-  <si>
     <t>Fall 2017</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>str</t>
+  </si>
+  <si>
+    <t>TermLabel</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>25</v>
@@ -665,7 +665,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>664</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -895,10 +895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,13 +911,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,10 +925,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>460</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,10 +936,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>356</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>542</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,10 +958,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,10 +969,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,10 +980,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>555</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,10 +991,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,10 +1013,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>664</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,10 +1024,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>20</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,159 +1046,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
         <v>692</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>3</v>
       </c>
@@ -1206,10 +1060,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1217,10 +1068,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>3</v>
       </c>
@@ -1228,10 +1076,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>3</v>
       </c>
@@ -1239,10 +1084,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>3</v>
       </c>
@@ -1250,10 +1092,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>3</v>
       </c>
@@ -1261,10 +1100,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -1272,10 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>3</v>
       </c>
@@ -1283,10 +1116,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>3</v>
       </c>
@@ -1294,10 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -1305,10 +1132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>3</v>
       </c>
@@ -1316,135 +1140,11 @@
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>4</v>
-      </c>
-      <c r="C40" s="1">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>4</v>
-      </c>
-      <c r="C41" s="1">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4</v>
-      </c>
-      <c r="C43" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4</v>
-      </c>
-      <c r="C48" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1">
         <v>692</v>
       </c>
     </row>
@@ -1473,16 +1173,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -3288,13 +2988,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>36</v>
@@ -3498,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>47</v>
@@ -3607,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3622,16 +3322,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3659,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3673,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3687,7 +3387,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3701,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3715,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3729,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3743,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,7 +3457,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3771,7 +3471,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,7 +3499,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3813,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3827,7 +3527,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3855,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3869,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3883,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3897,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3911,7 +3611,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3925,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3939,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3967,7 +3667,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3981,7 +3681,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3995,7 +3695,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4009,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4023,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4037,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4051,7 +3751,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,7 +3779,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4093,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4107,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4135,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4149,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4163,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4177,7 +3877,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4191,7 +3891,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4205,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4219,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4233,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4247,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4261,7 +3961,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,7 +3975,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4289,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4303,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4317,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4331,7 +4031,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531378\Documents\44663\Team07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533487\Documents\44663\Team07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1592,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,7 +2005,7 @@
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="85" style="1" customWidth="1"/>
+    <col min="6" max="6" width="114.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531378\Documents\44663\Team07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534051\Documents\44663\Team07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534051\Documents\44663\Team07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531496\Desktop\team7\Team07\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3D9FD-0DA4-4BD1-B9B3-9E98FF5F4510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Student" sheetId="6" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -182,9 +182,6 @@
     <t>Shivani Reddy</t>
   </si>
   <si>
-    <t>Reddy</t>
-  </si>
-  <si>
     <t>Lokeswari</t>
   </si>
   <si>
@@ -303,12 +300,15 @@
   </si>
   <si>
     <t>StudentID</t>
+  </si>
+  <si>
+    <t>Dodla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -710,16 +710,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -806,7 +806,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -943,7 +943,7 @@
         <v>664</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1020,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1038,16 +1038,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,10 +1333,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1352,19 +1352,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1589,7 +1589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1608,22 +1608,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,11 +1842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1862,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>42</v>
@@ -1877,7 +1877,7 @@
         <v>919</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>36</v>
@@ -1918,8 +1918,8 @@
         <v>919565950</v>
       </c>
       <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F6" si="0" xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A3&amp;" , "&amp;$B$1&amp;" = "&amp;B3&amp;" , "&amp;$C$1&amp;" = "&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;" , "&amp;$E$1&amp;" = "&amp;E3&amp;"},"</f>
-        <v>new Student{ StudentId = 531496 , First = Shivani Reddy , Last = Reddy , Snumber =S531496 , 919 = 919565950},</v>
+        <f xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A3&amp;" , "&amp;$B$1&amp;" = "&amp;B3&amp;" , "&amp;$C$1&amp;" = "&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;" , "&amp;$E$1&amp;" = "&amp;E3&amp;"},"</f>
+        <v>new Student{ StudentId = 531496 , First = Shivani Reddy , Last = Dodla , Snumber =S531496 , 919 = 919565950},</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,10 +1927,10 @@
         <v>531378</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>37</v>
@@ -1939,7 +1939,7 @@
         <v>919563259</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F6" si="0" xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A4&amp;" , "&amp;$B$1&amp;" = "&amp;B4&amp;" , "&amp;$C$1&amp;" = "&amp;C4&amp;" , "&amp;$D$1&amp;" ="&amp;D4&amp;" , "&amp;$E$1&amp;" = "&amp;E4&amp;"},"</f>
         <v>new Student{ StudentId = 531378 , First = Lokeswari , Last = Pittu , Snumber =S531378 , 919 = 919563259},</v>
       </c>
     </row>
@@ -1948,10 +1948,10 @@
         <v>534051</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
@@ -1969,10 +1969,10 @@
         <v>533487</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -2012,22 +2012,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3">
         <v>10</v>
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
@@ -2083,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
@@ -2104,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4">
         <v>12</v>
@@ -2146,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4">
         <v>12</v>
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="4">
         <v>12</v>
@@ -2188,7 +2188,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4">
         <v>12</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5">
         <v>14</v>
@@ -2230,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5">
         <v>14</v>
@@ -2251,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="5">
         <v>14</v>
@@ -2272,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="5">
         <v>14</v>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5">
         <v>14</v>
@@ -2314,7 +2314,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5">
         <v>14</v>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="6">
         <v>16</v>
@@ -2356,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6">
         <v>16</v>
@@ -2377,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="6">
         <v>16</v>
@@ -2398,7 +2398,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6">
         <v>16</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="7">
         <v>18</v>
@@ -2440,7 +2440,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="7">
         <v>18</v>
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="7">
         <v>18</v>
@@ -2482,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="7">
         <v>18</v>
@@ -2503,7 +2503,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="7">
         <v>18</v>
@@ -2524,7 +2524,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="7">
         <v>18</v>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531496\Desktop\team7\Team07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533487\Documents\44663\Team07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC3D9FD-0DA4-4BD1-B9B3-9E98FF5F4510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
     <sheet name="Requirement" sheetId="2" r:id="rId2"/>
     <sheet name="DegreeRequirement" sheetId="3" r:id="rId3"/>
-    <sheet name="DegreeplanTermRequirement" sheetId="4" r:id="rId4"/>
+    <sheet name="Student" sheetId="6" r:id="rId4"/>
     <sheet name="DegreePlan" sheetId="5" r:id="rId5"/>
-    <sheet name="Student" sheetId="6" r:id="rId6"/>
+    <sheet name="DegreeplanTermRequirement" sheetId="4" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -308,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -788,7 +787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1020,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1333,7 +1332,409 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="97.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2">
+        <v>919</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>531382</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
+        <v>919562176</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A2&amp;" , "&amp;$B$1&amp;" = "&amp;B2&amp;" , "&amp;$C$1&amp;" = "&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;" , "&amp;$E$1&amp;" = "&amp;E2&amp;"},"</f>
+        <v>new Student{ StudentId = 531382 , First = Sreelekha , Last = Vijaya , Snumber =S531382 , 919 = 919562176},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>531496</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1">
+        <v>919565950</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A3&amp;" , "&amp;$B$1&amp;" = "&amp;B3&amp;" , "&amp;$C$1&amp;" = "&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;" , "&amp;$E$1&amp;" = "&amp;E3&amp;"},"</f>
+        <v>new Student{ StudentId = 531496 , First = Shivani Reddy , Last = Dodla , Snumber =S531496 , 919 = 919565950},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>531378</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>919563259</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" ref="F4:F6" si="0" xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A4&amp;" , "&amp;$B$1&amp;" = "&amp;B4&amp;" , "&amp;$C$1&amp;" = "&amp;C4&amp;" , "&amp;$D$1&amp;" ="&amp;D4&amp;" , "&amp;$E$1&amp;" = "&amp;E4&amp;"},"</f>
+        <v>new Student{ StudentId = 531378 , First = Lokeswari , Last = Pittu , Snumber =S531378 , 919 = 919563259},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>534051</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>919570258</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student{ StudentId = 534051 , First = Abhinay , Last = Kaitha , Snumber =S534051 , 919 = 919570258},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>533487</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1">
+        <v>919568647</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student{ StudentId = 533487 , First = Rakesh , Last = Avirineni , Snumber =S533487 , 919 = 919568647},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="143.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>531382</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f xml:space="preserve"> "new DegreePlan{"&amp;$A$1&amp;" = "&amp;A2&amp;" , "&amp;$B$1&amp;" = "&amp;B2&amp;" , "&amp;$C$1&amp;" = "&amp;C2&amp;" , "&amp;$D$1&amp;" = "&amp;D2&amp;" , "&amp;$E$1&amp;" = "&amp;E2&amp;"},"</f>
+        <v>new DegreePlan{ DegreePlanId = 10 ,  DegreeID = 3 ,  StudentId = 531382 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>531382</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F11" si="0" xml:space="preserve"> "new DegreePlan{"&amp;$A$1&amp;" = "&amp;A3&amp;" , "&amp;$B$1&amp;" = "&amp;B3&amp;" , "&amp;$C$1&amp;" = "&amp;C3&amp;" , "&amp;$D$1&amp;" = "&amp;D3&amp;" , "&amp;$E$1&amp;" = "&amp;E3&amp;"},"</f>
+        <v>new DegreePlan{ DegreePlanId = 11 ,  DegreeID = 3 ,  StudentId = 531382 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>531496</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 12 ,  DegreeID = 3 ,  StudentId = 531496 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>531496</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 13 ,  DegreeID = 3 ,  StudentId = 531496 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>531378</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 14 ,  DegreeID = 3 ,  StudentId = 531378 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>531378</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 15 ,  DegreeID = 3 ,  StudentId = 531378 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>534051</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 16 ,  DegreeID = 3 ,  StudentId = 534051 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>534051</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 17 ,  DegreeID = 3 ,  StudentId = 534051 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>533487</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 18 ,  DegreeID = 3 ,  StudentId = 533487 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>533487</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{ DegreePlanId = 19 ,  DegreeID = 3 ,  StudentId = 533487 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1588,413 +1989,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="24.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="143.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>531382</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f xml:space="preserve"> "new DegreePlan{"&amp;$A$1&amp;" = "&amp;A2&amp;" , "&amp;$B$1&amp;" = "&amp;B2&amp;" , "&amp;$C$1&amp;" = "&amp;C2&amp;" , "&amp;$D$1&amp;" = "&amp;D2&amp;" , "&amp;$E$1&amp;" = "&amp;E2&amp;"},"</f>
-        <v>new DegreePlan{ DegreePlanId = 10 ,  DegreeID = 3 ,  StudentId = 531382 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>531382</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" ref="F3:F11" si="0" xml:space="preserve"> "new DegreePlan{"&amp;$A$1&amp;" = "&amp;A3&amp;" , "&amp;$B$1&amp;" = "&amp;B3&amp;" , "&amp;$C$1&amp;" = "&amp;C3&amp;" , "&amp;$D$1&amp;" = "&amp;D3&amp;" , "&amp;$E$1&amp;" = "&amp;E3&amp;"},"</f>
-        <v>new DegreePlan{ DegreePlanId = 11 ,  DegreeID = 3 ,  StudentId = 531382 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>531496</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 12 ,  DegreeID = 3 ,  StudentId = 531496 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>531496</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 13 ,  DegreeID = 3 ,  StudentId = 531496 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>531378</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 14 ,  DegreeID = 3 ,  StudentId = 531378 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>531378</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 15 ,  DegreeID = 3 ,  StudentId = 531378 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>534051</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 16 ,  DegreeID = 3 ,  StudentId = 534051 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>534051</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 17 ,  DegreeID = 3 ,  StudentId = 534051 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>533487</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 18 ,  DegreeID = 3 ,  StudentId = 533487 , DegreePlanAbbrev = Slow and Easy , DegreePlanName = As Slow as I can},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>533487</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new DegreePlan{ DegreePlanId = 19 ,  DegreeID = 3 ,  StudentId = 533487 , DegreePlanAbbrev = Super Fast , DegreePlanName = As Fast as I can},</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="97.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="2">
-        <v>919</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>531382</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1">
-        <v>919562176</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A2&amp;" , "&amp;$B$1&amp;" = "&amp;B2&amp;" , "&amp;$C$1&amp;" = "&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;" , "&amp;$E$1&amp;" = "&amp;E2&amp;"},"</f>
-        <v>new Student{ StudentId = 531382 , First = Sreelekha , Last = Vijaya , Snumber =S531382 , 919 = 919562176},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>531496</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1">
-        <v>919565950</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A3&amp;" , "&amp;$B$1&amp;" = "&amp;B3&amp;" , "&amp;$C$1&amp;" = "&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;" , "&amp;$E$1&amp;" = "&amp;E3&amp;"},"</f>
-        <v>new Student{ StudentId = 531496 , First = Shivani Reddy , Last = Dodla , Snumber =S531496 , 919 = 919565950},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>531378</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1">
-        <v>919563259</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" ref="F3:F6" si="0" xml:space="preserve"> "new Student{"&amp;$A$1&amp;" = "&amp;A4&amp;" , "&amp;$B$1&amp;" = "&amp;B4&amp;" , "&amp;$C$1&amp;" = "&amp;C4&amp;" , "&amp;$D$1&amp;" ="&amp;D4&amp;" , "&amp;$E$1&amp;" = "&amp;E4&amp;"},"</f>
-        <v>new Student{ StudentId = 531378 , First = Lokeswari , Last = Pittu , Snumber =S531378 , 919 = 919563259},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>534051</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
-        <v>919570258</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new Student{ StudentId = 534051 , First = Abhinay , Last = Kaitha , Snumber =S534051 , 919 = 919570258},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>533487</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1">
-        <v>919568647</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>new Student{ StudentId = 533487 , First = Rakesh , Last = Avirineni , Snumber =S533487 , 919 = 919568647},</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533487\Documents\44663\Team07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s531378\Documents\44663\Team07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -1484,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
